--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
@@ -1220,84 +1220,84 @@
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="42" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="50" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="65" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="72" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="73" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="87" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="95" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="107" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="130" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="139" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="146" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="157" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="169" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="180" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="181" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="183" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="193" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="203" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="210" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="211" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="218" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="224" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="227" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="228" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="231" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="235" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="236" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="239" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="240" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="243" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="249" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="250" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="256" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="257" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="264" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="268" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="269" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="274" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="275" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="278" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="279" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="281" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="300" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="303" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="304" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="308" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="315" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="318" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="319" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="321" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="322" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="326" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="327" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="329" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="330" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="334" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="338" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="339" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="343" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="344" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="346" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="349" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="350" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="352" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="353" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="355" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="356" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="358" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="359" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="361" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="362" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="367" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <x:row r="370" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="43" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="72" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="73" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="87" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="95" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="169" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
@@ -514,20 +514,10 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Ship date">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1988-05-26T00:00:00" maxDate="1993-10-19T00:00:00" count="4">
-        <x:d v="1988-05-26T00:00:00"/>
-        <x:d v="1988-07-19T00:00:00"/>
-        <x:d v="1988-08-27T00:00:00"/>
-        <x:d v="1993-10-19T00:00:00"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="Items total">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="134.85" maxValue="20108" count="4">
-        <x:n v="134.85"/>
-        <x:n v="20108"/>
-        <x:n v="10152"/>
-        <x:n v="1004.8"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="Tax rate">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -535,12 +525,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Amount paid">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="134.85" maxValue="20108" count="4">
-        <x:n v="134.85"/>
-        <x:n v="20108"/>
-        <x:n v="10152"/>
-        <x:n v="1004.8"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
   </x:cacheFields>
   <x:extLst>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
@@ -514,10 +514,10 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Ship date">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1988-05-26T00:00:00" maxDate="1993-10-20T00:00:00"/>
     </x:cacheField>
     <x:cacheField name="Items total">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="134.85" maxValue="20108"/>
     </x:cacheField>
     <x:cacheField name="Tax rate">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -525,7 +525,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Amount paid">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="134.85" maxValue="20108"/>
     </x:cacheField>
   </x:cacheFields>
   <x:extLst>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
@@ -537,7 +537,44 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1988-05-26T00:00:00"/>
+    <n v="134.85"/>
+    <x v="0"/>
+    <n v="134.85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1988-07-19T00:00:00"/>
+    <n v="20108"/>
+    <x v="0"/>
+    <n v="20108"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <d v="1988-08-27T00:00:00"/>
+    <n v="10152"/>
+    <x v="0"/>
+    <n v="10152"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="1993-10-19T00:00:00"/>
+    <n v="1004.8"/>
+    <x v="0"/>
+    <n v="1004.8"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/output.xlsx
@@ -578,139 +578,132 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="7">
-    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="3">
-    <x:field x="0"/>
-    <x:field x="1"/>
-    <x:field x="2"/>
-  </x:rowFields>
-  <x:rowItems count="11">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="2">
-    <x:field x="5"/>
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="2">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="Sum Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="3" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Sum Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="3" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:formats count="4">
-    <x:format dxfId="1">
-      <x:pivotArea type="normal" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </x:format>
-    <x:format dxfId="1">
-      <x:pivotArea type="normal" dataOnly="0" labelOnly="1" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </x:format>
-    <x:format dxfId="2">
-      <x:pivotArea type="normal" fieldPosition="0">
-        <x:references count="1">
-          <x:reference field="0" defaultSubtotal="1"/>
-        </x:references>
-      </x:pivotArea>
-    </x:format>
-    <x:format dxfId="2">
-      <x:pivotArea type="normal" dataOnly="0" labelOnly="1" fieldPosition="0">
-        <x:references count="1">
-          <x:reference field="5"/>
-        </x:references>
-      </x:pivotArea>
-    </x:format>
-  </x:formats>
-  <x:pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="8" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="B3:H14" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
+  <pivotFields count="7">
+    <pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Ship date" compact="0" outline="0"/>
+    <pivotField name="Items total" dataField="1" compact="0" outline="0"/>
+    <pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Amount paid" dataField="1" compact="0" outline="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum Amount paid" fld="6" baseField="3" baseItem="0"/>
+    <dataField name="Sum Items total" fld="4" baseField="3" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="1">
+      <pivotArea grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" defaultSubtotal="1"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
